--- a/3 курс/1 семестр/РПР/Lab_3/FromWebToExcel/ExtrData.xlsx
+++ b/3 курс/1 семестр/РПР/Lab_3/FromWebToExcel/ExtrData.xlsx
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
-    <x:t>Sue N. Gray</x:t>
+    <x:t>Nancy C. Nguyen</x:t>
   </x:si>
   <x:si>
-    <x:t>Enrique L. Zimmerman</x:t>
+    <x:t>Helen W. Watson</x:t>
   </x:si>
   <x:si>
-    <x:t>Lynda F. Jennings</x:t>
+    <x:t>Bruce C. Torres</x:t>
   </x:si>
   <x:si>
-    <x:t>Lawrence P. McKeon</x:t>
+    <x:t>April J. McKissack</x:t>
   </x:si>
   <x:si>
-    <x:t>Floyd M. Redding</x:t>
+    <x:t>Gwendolyn A. Lee</x:t>
   </x:si>
 </x:sst>
 </file>
